--- a/Waste/A2_Structure_Lists.xlsx
+++ b/Waste/A2_Structure_Lists.xlsx
@@ -175,13 +175,13 @@
     <t>CH4_WASTE</t>
   </si>
   <si>
+    <t>N2O_WASTE</t>
+  </si>
+  <si>
+    <t>CO2_WASTE</t>
+  </si>
+  <si>
     <t>CO2e_WASTE</t>
-  </si>
-  <si>
-    <t>N2O_WASTE</t>
-  </si>
-  <si>
-    <t>CO2_WASTE</t>
   </si>
   <si>
     <t>ECU</t>
@@ -1069,13 +1069,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2614643-B1A5-4D8B-BE85-70383525ED75}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1C02953-B847-47BF-88D7-153EF9639353}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABFBE388-A5F9-4412-8AD0-8E7959B9ED07}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0906AE7E-9324-47FB-B66B-DF4610C7B954}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE2CF755-B2DB-4196-ABCC-492907E73583}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{840D7E6A-4C39-465A-9CF0-3FDA1E6A7607}"/>
 </file>